--- a/understanding_and_utilizing_test_design_techniques/13_状態遷移表(リセットボタン・送信ボタン).xlsx
+++ b/understanding_and_utilizing_test_design_techniques/13_状態遷移表(リセットボタン・送信ボタン).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/test_engineer_course_exam/understanding_and_utilizing_test_design_techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E120CB5-A87F-D247-9FE7-4643693ADFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A157454-92A7-B44B-95B4-D81C79A4D1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31120" yWindow="1240" windowWidth="27900" windowHeight="16400" xr2:uid="{A34602B1-1F4A-1244-B27B-274167FC4BCF}"/>
+    <workbookView xWindow="31120" yWindow="1240" windowWidth="27900" windowHeight="16400" activeTab="1" xr2:uid="{A34602B1-1F4A-1244-B27B-274167FC4BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="状態遷移表作成課題" sheetId="1" r:id="rId1"/>
+    <sheet name="サンプル" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -634,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED0D25D-6AF1-1842-B6E8-916746181AEE}">
   <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -791,4 +792,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDE4D6A-3CA7-FB4A-8895-24BB7A97B381}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/understanding_and_utilizing_test_design_techniques/13_状態遷移表(リセットボタン・送信ボタン).xlsx
+++ b/understanding_and_utilizing_test_design_techniques/13_状態遷移表(リセットボタン・送信ボタン).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/test_engineer_course_exam/understanding_and_utilizing_test_design_techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B742F39-3438-8D41-8C53-246C0BDBAAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91546ACC-1E69-5A40-AFA5-A93DA27F5B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36820" yWindow="1380" windowWidth="27900" windowHeight="16400" xr2:uid="{A34602B1-1F4A-1244-B27B-274167FC4BCF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A34602B1-1F4A-1244-B27B-274167FC4BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="（解説）状態遷移表作成課題" sheetId="3" r:id="rId1"/>
@@ -37,17 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="21">
   <si>
     <t>リセットボタン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アクティブ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタンの状態</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -100,7 +96,7 @@
   </si>
   <si>
     <t>送信ボタン</t>
-    <rPh sb="6" eb="8">
+    <rPh sb="0" eb="5">
       <t xml:space="preserve">ソウシン </t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -125,10 +121,7 @@
       <t xml:space="preserve">トイアワセ </t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t xml:space="preserve">ナイヨウ </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">ニュウリョク </t>
+      <t xml:space="preserve">ナイヨウ ニュウリョク </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -254,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -297,7 +290,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -315,7 +308,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -327,6 +320,133 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -341,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,31 +471,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,13 +614,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1206500</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -488,7 +635,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8699500" y="1930400"/>
+          <a:off x="8699500" y="1905000"/>
           <a:ext cx="2857500" cy="1054100"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -530,15 +677,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -553,8 +700,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12522200" y="6870700"/>
-          <a:ext cx="2857500" cy="1054100"/>
+          <a:off x="12573000" y="7797800"/>
+          <a:ext cx="2857500" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -990,158 +1137,156 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" thickBot="1">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" thickBot="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="A18" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1151,381 +1296,381 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" thickBot="1">
       <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" thickBot="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>2</v>
+      <c r="F27" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>7</v>
+      <c r="A28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
+      <c r="A29" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>1</v>
+      <c r="F30" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="11"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="11"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="11"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="11"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="11"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="11"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="8"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="8"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="8"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="8"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="8"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="11"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="8"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="11"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="8"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="8"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="11"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="11"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="9"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="9"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" ht="21" thickBot="1">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="10"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1549,158 +1694,156 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21" thickBot="1">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21" thickBot="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="D10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="7" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" thickBot="1">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="A18" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1710,381 +1853,381 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21" thickBot="1">
       <c r="A26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21" thickBot="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>2</v>
+      <c r="F27" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>7</v>
+      <c r="A28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
-        <v>4</v>
+      <c r="A29" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>1</v>
+      <c r="F30" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A33" s="6"/>
       <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="11"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="11"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="11"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="11"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="11"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="11"/>
+      <c r="A42" s="6"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="11"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="8"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="8"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="8"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="8"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="8"/>
       <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="8"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="11"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="9"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="8"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="11"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="9"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="8"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="8"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="11"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="11"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="9"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="11"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="9"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="9"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" ht="21" thickBot="1">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="10"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/understanding_and_utilizing_test_design_techniques/13_状態遷移表(リセットボタン・送信ボタン).xlsx
+++ b/understanding_and_utilizing_test_design_techniques/13_状態遷移表(リセットボタン・送信ボタン).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/test_engineer_course_exam/understanding_and_utilizing_test_design_techniques/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/DLテスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91546ACC-1E69-5A40-AFA5-A93DA27F5B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DE3BA0-56E1-FD4E-97C4-F0F1F84CB309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A34602B1-1F4A-1244-B27B-274167FC4BCF}"/>
   </bookViews>
@@ -602,7 +602,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>この仕様を満たす条件遷移表を作成します。</a:t>
+            <a:t>この仕様を満たす状態遷移表を作成します。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -797,7 +797,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>この仕様を満たす条件遷移表を作成します。</a:t>
+            <a:t>この仕様を満たす状態遷移表を作成します。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
